--- a/Android进阶之日常学习路线.xlsx
+++ b/Android进阶之日常学习路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="9825"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="9675" windowHeight="9825" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Android进阶" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="java 新知识点" sheetId="3" r:id="rId3"/>
     <sheet name="电脑组装" sheetId="4" r:id="rId4"/>
     <sheet name="Android新建项目需考虑的问题" sheetId="5" r:id="rId5"/>
+    <sheet name="git配置" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -478,17 +479,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -906,10 +907,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -967,12 +968,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
@@ -1221,39 +1222,39 @@
     <col min="1" max="16384" width="11.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:26" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-    </row>
-    <row r="3" spans="1:26" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:26" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:26" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:26" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+    </row>
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:26" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:26" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:26" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A6:XFD6"/>
@@ -1266,4 +1267,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Android进阶之日常学习路线.xlsx
+++ b/Android进阶之日常学习路线.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,9 @@
   <si>
     <t>基类封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/pql925/article/details/72772660</t>
   </si>
 </sst>
 </file>
@@ -1271,12 +1274,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
